--- a/cotação.xlsx
+++ b/cotação.xlsx
@@ -446,64 +446,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>012434</t>
+          <t>013956</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ASSENTO SANIT ALMOF BRANCO ATLAS CLAS</t>
+          <t>MARTELO 27 MM UNHA POLIDO FIBRA MTX</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>013788</t>
+          <t>012038</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ASSENTO SANIT CARAMELO MAX PLENA 300 TIGRE</t>
+          <t>PENEIRA ARO METAL 55 AREIA VITORIA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>013786</t>
+          <t>012037</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ASSENTO SANIT BRANCO MAX PLENA 000 TIGRE</t>
+          <t>PENEIRA ARO METAL 55 ARROZ VITORIA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>013787</t>
+          <t>009343</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ASSENTO SANIT CINZA MAX PLENA 100 TIGRE</t>
+          <t>PRUMO METAL 500GR REF-2263 RAMADA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
